--- a/EnFloSW/ADAM Server/Sub VI's/Gas management/Hi Tec Calibs/Hi Tec Calibs_June_2016.xlsx
+++ b/EnFloSW/ADAM Server/Sub VI's/Gas management/Hi Tec Calibs/Hi Tec Calibs_June_2016.xlsx
@@ -821,13 +821,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1044,11 +1043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201263360"/>
-        <c:axId val="201273728"/>
+        <c:axId val="60401536"/>
+        <c:axId val="60416000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201263360"/>
+        <c:axId val="60401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1083,19 +1082,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201273728"/>
+        <c:crossAx val="60416000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201273728"/>
+        <c:axId val="60416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1129,14 +1127,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201263360"/>
+        <c:crossAx val="60401536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1325,11 +1322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201985408"/>
-        <c:axId val="201987584"/>
+        <c:axId val="59493376"/>
+        <c:axId val="61555840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201985408"/>
+        <c:axId val="59493376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1364,19 +1361,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201987584"/>
+        <c:crossAx val="61555840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201987584"/>
+        <c:axId val="61555840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1410,14 +1406,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201985408"/>
+        <c:crossAx val="59493376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,11 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202009600"/>
-        <c:axId val="202036352"/>
+        <c:axId val="61684352"/>
+        <c:axId val="61698816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202009600"/>
+        <c:axId val="61684352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1639,12 +1634,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202036352"/>
+        <c:crossAx val="61698816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202036352"/>
+        <c:axId val="61698816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1685,7 +1680,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202009600"/>
+        <c:crossAx val="61684352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1804,11 +1799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201311360"/>
-        <c:axId val="201312896"/>
+        <c:axId val="60502784"/>
+        <c:axId val="60504320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201311360"/>
+        <c:axId val="60502784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,12 +1813,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201312896"/>
+        <c:crossAx val="60504320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201312896"/>
+        <c:axId val="60504320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201311360"/>
+        <c:crossAx val="60502784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2009,11 +2004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201335168"/>
-        <c:axId val="201337088"/>
+        <c:axId val="60997632"/>
+        <c:axId val="60999552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201335168"/>
+        <c:axId val="60997632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2048,19 +2043,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201337088"/>
+        <c:crossAx val="60999552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201337088"/>
+        <c:axId val="60999552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2094,14 +2088,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201335168"/>
+        <c:crossAx val="60997632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2278,11 +2271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201392128"/>
-        <c:axId val="201394048"/>
+        <c:axId val="61283712"/>
+        <c:axId val="61302272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201392128"/>
+        <c:axId val="61283712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2317,19 +2310,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201394048"/>
+        <c:crossAx val="61302272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201394048"/>
+        <c:axId val="61302272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2363,14 +2355,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201392128"/>
+        <c:crossAx val="61283712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2484,28 +2475,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6458000000000004</c:v>
+                  <c:v>3.9312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4127999999999998</c:v>
+                  <c:v>4.5644999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5579999999999998</c:v>
+                  <c:v>3.2858000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6913</c:v>
+                  <c:v>2.6238000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82979999999999998</c:v>
+                  <c:v>1.9575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82979999999999998</c:v>
+                  <c:v>1.2952999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40699999999999997</c:v>
+                  <c:v>0.64529999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23885999999999999</c:v>
+                  <c:v>0.32750000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2516,6 +2507,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.351E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1380000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6909999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.954E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.215E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3010000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5960000000000002E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2529,11 +2544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201451392"/>
-        <c:axId val="200345472"/>
+        <c:axId val="61389824"/>
+        <c:axId val="61396096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201451392"/>
+        <c:axId val="61389824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2575,12 +2590,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200345472"/>
+        <c:crossAx val="61396096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200345472"/>
+        <c:axId val="61396096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2621,7 +2636,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201451392"/>
+        <c:crossAx val="61389824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,11 +2813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="200399488"/>
-        <c:axId val="201413376"/>
+        <c:axId val="59599104"/>
+        <c:axId val="59605376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200399488"/>
+        <c:axId val="59599104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2837,19 +2852,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201413376"/>
+        <c:crossAx val="59605376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201413376"/>
+        <c:axId val="59605376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2884,14 +2898,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200399488"/>
+        <c:crossAx val="59599104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3068,11 +3081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201734400"/>
-        <c:axId val="201744768"/>
+        <c:axId val="59754368"/>
+        <c:axId val="59760640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201734400"/>
+        <c:axId val="59754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3107,19 +3120,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201744768"/>
+        <c:crossAx val="59760640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201744768"/>
+        <c:axId val="59760640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3153,14 +3165,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201734400"/>
+        <c:crossAx val="59754368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3279,11 +3290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201773824"/>
-        <c:axId val="201775360"/>
+        <c:axId val="61747584"/>
+        <c:axId val="61749120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201773824"/>
+        <c:axId val="61747584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,12 +3304,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201775360"/>
+        <c:crossAx val="61749120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201775360"/>
+        <c:axId val="61749120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,14 +3320,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201773824"/>
+        <c:crossAx val="61747584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3491,11 +3501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202088448"/>
-        <c:axId val="202090368"/>
+        <c:axId val="61808000"/>
+        <c:axId val="61814272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202088448"/>
+        <c:axId val="61808000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3536,12 +3546,12 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202090368"/>
+        <c:crossAx val="61814272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202090368"/>
+        <c:axId val="61814272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3581,7 +3591,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202088448"/>
+        <c:crossAx val="61808000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4574,7 +4584,7 @@
         <f>100*E5/5</f>
         <v>5.5683999999999996</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f>$U$15+$U$16*M5+$U$17*M5^2+$U$18*M5^3</f>
         <v>1.3593522321491363</v>
       </c>
@@ -4639,11 +4649,11 @@
         <f t="shared" ref="M6:M10" si="5">100*E6/5</f>
         <v>10.994</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" ref="N6:N10" si="6">$U$15+$U$16*M6+$U$17*M6^2+$U$18*M6^3</f>
         <v>1.3601946593544634</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="6"/>
       <c r="Q6" s="1">
         <f t="shared" si="1"/>
         <v>74.024140431435043</v>
@@ -4705,11 +4715,11 @@
         <f t="shared" si="5"/>
         <v>22.233999999999998</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="6"/>
         <v>1.3616184173935493</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="6"/>
       <c r="Q7" s="1">
         <f t="shared" si="1"/>
         <v>147.40726826293493</v>
@@ -4771,11 +4781,11 @@
         <f t="shared" si="5"/>
         <v>33.774000000000001</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" si="6"/>
         <v>1.3624524021019875</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="6"/>
       <c r="Q8" s="1">
         <f t="shared" si="1"/>
         <v>220.24000752756351</v>
@@ -4837,11 +4847,11 @@
         <f t="shared" si="5"/>
         <v>45.532000000000004</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="6"/>
         <v>1.3624225693871952</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="6"/>
       <c r="Q9" s="1">
         <f t="shared" si="1"/>
         <v>293.04902863066224</v>
@@ -4903,11 +4913,11 @@
         <f t="shared" si="5"/>
         <v>57.323999999999998</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" si="6"/>
         <v>1.3612688508867576</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="6"/>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
         <v>365.90110095738379</v>
@@ -4943,10 +4953,10 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4963,7 +4973,7 @@
       <c r="S15" s="1">
         <v>1.36</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="7">
         <v>1.3584149999999999</v>
       </c>
       <c r="V15" s="1">
@@ -4987,7 +4997,7 @@
       <c r="S16" s="1">
         <v>1.3620000000000001</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="7">
         <v>1.7346080000000001E-4</v>
       </c>
       <c r="V16" s="1">
@@ -5011,7 +5021,7 @@
       <c r="S17" s="1">
         <v>1.3620000000000001</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="7">
         <v>-7.9187479999999995E-7</v>
       </c>
       <c r="X17" s="1" t="s">
@@ -5035,7 +5045,7 @@
       <c r="S18" s="1">
         <v>1.357</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>-2.382283E-8</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -7227,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7373,14 +7383,14 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="10">
-        <v>5.4980000000000001E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4.6458000000000004</v>
+      <c r="D5" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.9312</v>
       </c>
       <c r="F5" s="1">
         <v>990</v>
@@ -7391,344 +7401,360 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="6">
+        <v>4.351E-2</v>
+      </c>
       <c r="L5" s="1">
         <f>K5/D5</f>
-        <v>0</v>
+        <v>0.96688888888888891</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q5" s="1">
         <f>N$21+N$22*E5+N$23*E5^2+N$24*E5^3</f>
-        <v>5.1332925734916719E-2</v>
-      </c>
-      <c r="R5" s="1" t="e">
+        <v>4.3882513191966829E-2</v>
+      </c>
+      <c r="R5" s="1">
         <f>$O$21+$O$22*E5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="1" t="e">
+        <v>4.4047662846767685E-2</v>
+      </c>
+      <c r="T5" s="1">
         <f>100*(Q5-$K5)/$K5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5" s="1" t="e">
+        <v>0.85615534811957994</v>
+      </c>
+      <c r="U5" s="1">
         <f>100*(R5-$K5)/$K5</f>
-        <v>#DIV/0!</v>
+        <v>1.235722470162457</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="D6" s="10">
-        <v>3.9969999999999999E-2</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3.4127999999999998</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="6">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4.5644999999999998</v>
+      </c>
+      <c r="F6" s="6">
         <v>990</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>21.6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="6">
+        <v>5.1380000000000002E-2</v>
+      </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L12" si="0">K6/D6</f>
-        <v>0</v>
+        <v>0.9786666666666668</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ref="Q6:Q12" si="1">N$21+N$22*E6+N$23*E6^2+N$24*E6^3</f>
-        <v>3.7384359415731011E-2</v>
-      </c>
-      <c r="R6" s="1" t="e">
-        <f t="shared" ref="R6:R12" si="2">$O$21+$O$22*E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="1" t="e">
-        <f t="shared" ref="T6:U12" si="3">100*(Q6-$K6)/$K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="1" t="e">
+        <f t="shared" ref="Q6:Q9" si="1">N$21+N$22*E6+N$23*E6^2+N$24*E6^3</f>
+        <v>5.1239817597679031E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R9" si="2">$O$21+$O$22*E6</f>
+        <v>5.1124559641829881E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" ref="T6:U9" si="3">100*(Q6-$K6)/$K6</f>
+        <v>-0.27283457049624521</v>
+      </c>
+      <c r="U6" s="1">
         <f>100*(R6-$K6)/$K6</f>
-        <v>#DIV/0!</v>
+        <v>-0.49715912450393374</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="D7" s="10">
-        <v>2.9987E-2</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="6">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.2858000000000001</v>
+      </c>
+      <c r="F7" s="6">
         <v>990</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>21.6</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="6">
+        <v>3.6909999999999998E-2</v>
+      </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98426666666666662</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="1"/>
-        <v>2.8083361056125904E-2</v>
-      </c>
-      <c r="R7" s="1" t="e">
+        <v>3.667574154059889E-2</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="1" t="e">
+        <v>3.6835552959616033E-2</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U7" s="1" t="e">
+        <v>-0.6346747748607654</v>
+      </c>
+      <c r="U7" s="1">
         <f>100*(R7-$K7)/$K7</f>
-        <v>#DIV/0!</v>
+        <v>-0.20169883604433847</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="10">
-        <v>1.9986E-2</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1.6913</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.6238000000000001</v>
+      </c>
+      <c r="F8" s="6">
         <v>990</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>21.6</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="6">
+        <v>2.954E-2</v>
+      </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98466666666666669</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="1"/>
-        <v>1.8718385021396531E-2</v>
-      </c>
-      <c r="R8" s="1" t="e">
+        <v>2.94450551573321E-2</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="1" t="e">
+        <v>2.9437944119680495E-2</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8" s="1" t="e">
+        <v>-0.32141111261983857</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.34548368422310421</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="10">
-        <v>9.9810000000000003E-3</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.82979999999999998</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="6">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.9575</v>
+      </c>
+      <c r="F9" s="6">
         <v>990</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>21.6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="6">
+        <v>2.215E-2</v>
+      </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98444444444444446</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="1"/>
-        <v>9.2629034319074224E-3</v>
-      </c>
-      <c r="R9" s="1" t="e">
+        <v>2.2182899751156143E-2</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="1" t="e">
+        <v>2.199228434619251E-2</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U9" s="1" t="e">
+        <v>0.1485316079284138</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-0.71203455443562091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="10">
-        <v>9.9810000000000003E-3</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.82979999999999998</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.2952999999999999</v>
+      </c>
+      <c r="F10" s="6">
         <v>990</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>21.6</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="7">
+      <c r="K10" s="6">
+        <v>1.4750000000000001E-2</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="s">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f t="shared" ref="Q10:Q12" si="4">N$21+N$22*E10+N$23*E10^2+N$24*E10^3</f>
-        <v>9.2629034319074224E-3</v>
-      </c>
-      <c r="R10" s="7" t="e">
+        <v>1.4830872672763389E-2</v>
+      </c>
+      <c r="R10" s="6">
         <f t="shared" ref="R10:R12" si="5">$O$21+$O$22*E10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="7" t="e">
+        <v>1.4592440579114999E-2</v>
+      </c>
+      <c r="T10" s="6">
         <f t="shared" ref="T10:T12" si="6">100*(Q10-$K10)/$K10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U10" s="7" t="e">
+        <v>0.54828930687042432</v>
+      </c>
+      <c r="U10" s="6">
         <f t="shared" ref="U10:U12" si="7">100*(R10-$K10)/$K10</f>
-        <v>#DIV/0!</v>
+        <v>-1.0681994636271324</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="D11" s="10">
-        <v>4.9849999999999998E-3</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="D11" s="6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="F11" s="6">
         <v>990</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>21.6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="6">
+        <v>7.3010000000000002E-3</v>
+      </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9734666666666667</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <f t="shared" si="4"/>
-        <v>4.5045119149833054E-3</v>
-      </c>
-      <c r="R11" s="7" t="e">
+        <v>7.339318575793897E-3</v>
+      </c>
+      <c r="R11" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="7" t="e">
+        <v>7.3289273676979327E-3</v>
+      </c>
+      <c r="T11" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="7" t="e">
+        <v>0.52484010127238456</v>
+      </c>
+      <c r="U11" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.38251428157694156</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42027</v>
+        <v>42536</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="D12" s="10">
-        <v>2.9761000000000002E-3</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.23885999999999999</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="6">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="F12" s="6">
         <v>990</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>21.6</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="6">
+        <v>3.5960000000000002E-3</v>
+      </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.97189189189189196</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <f t="shared" si="4"/>
-        <v>2.582651809881912E-3</v>
-      </c>
-      <c r="R12" s="7" t="e">
+        <v>3.5344344952679537E-3</v>
+      </c>
+      <c r="R12" s="6">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="7" t="e">
+        <v>3.7776281391004815E-3</v>
+      </c>
+      <c r="T12" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="7" t="e">
+        <v>-1.712055192771037</v>
+      </c>
+      <c r="U12" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>5.0508381284894659</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -7767,12 +7793,12 @@
       <c r="M21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="5">
-        <v>-1.8089000000000001E-4</v>
-      </c>
-      <c r="O21" s="1" t="e">
+      <c r="N21" s="8">
+        <v>-5.0765999999999995E-4</v>
+      </c>
+      <c r="O21" s="1">
         <f>INTERCEPT(K5:K12,E5:E12)</f>
-        <v>#DIV/0!</v>
+        <v>1.179349441172671E-4</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -7781,12 +7807,12 @@
       <c r="M22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="5">
-        <v>1.1657000000000001E-2</v>
-      </c>
-      <c r="O22" s="1" t="e">
+      <c r="N22" s="8">
+        <v>1.2548E-2</v>
+      </c>
+      <c r="O22" s="1">
         <f>SLOPE(K5:K12,E5:E12)</f>
-        <v>#DIV/0!</v>
+        <v>1.117463570987241E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -7795,8 +7821,8 @@
       <c r="M23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="5">
-        <v>-3.7859999999999999E-4</v>
+      <c r="N23" s="8">
+        <v>-6.5622E-4</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -7805,8 +7831,8 @@
       <c r="M24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="5">
-        <v>5.5142000000000002E-5</v>
+      <c r="N24" s="8">
+        <v>8.5638999999999998E-5</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -7838,7 +7864,8 @@
         <v>11</v>
       </c>
       <c r="N27" s="2">
-        <v>42038</v>
+        <f>AVERAGE(A5:A12)</f>
+        <v>42536</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>86</v>
@@ -7847,6 +7874,11 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -8713,154 +8745,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="11.5703125" style="7" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="7"/>
-    <col min="13" max="13" width="19" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
-    <col min="15" max="20" width="9.140625" style="7"/>
-    <col min="21" max="21" width="9.140625" style="7" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="6" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="11.5703125" style="6" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="6"/>
+    <col min="13" max="13" width="19" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="6" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="6"/>
+    <col min="21" max="21" width="9.140625" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8871,60 +8903,60 @@
       <c r="B5" s="3">
         <v>0.375</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>3505712459</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>49.985300000000002</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>4.6044</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>16.875800000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>353.13799999999998</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>49.854427820461332</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>1/N5</f>
         <v>0.74290365417116178</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f>I5*J5</f>
         <v>37.037036604433155</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f t="shared" ref="L5:L10" si="0">K5/D5</f>
         <v>0.74095857390939246</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <f>100*E5/5</f>
         <v>92.087999999999994</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f>$U$15+$U$16*M5+$U$17*M5^2+$U$18*M5^3</f>
         <v>1.3460695668749589</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <f t="shared" ref="Q5:Q10" si="1">N$18+N$19*E5+N$20*E5^2+N$21*E5^3</f>
         <v>37.025128043829795</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <f t="shared" ref="R5:R10" si="2">$O$18+$O$19*E5</f>
         <v>36.734882877988653</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <f>100*(Q5-$K5)/$K5</f>
         <v>-3.2153114004628336E-2</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <f>100*(R5-$K5)/$K5</f>
         <v>-0.81581507092912287</v>
       </c>
@@ -8936,60 +8968,60 @@
       <c r="B6" s="3">
         <v>0.37916666666666665</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>3505712798</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>40.036900000000003</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>3.7225000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>16.942499999999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>336.70600000000002</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>39.865880370682042</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>1/N6</f>
         <v>0.73849288726425455</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" ref="K6:K10" si="3">I6*J6</f>
         <v>29.440669098276352</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="0"/>
         <v>0.73533837780338518</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <f t="shared" ref="M6:M10" si="4">100*E6/5</f>
         <v>74.45</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" ref="N6:N10" si="5">$U$15+$U$16*M6+$U$17*M6^2+$U$18*M6^3</f>
         <v>1.354109182695717</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <f t="shared" si="1"/>
         <v>29.476536456006233</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <f t="shared" si="2"/>
         <v>29.70317306458119</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <f t="shared" ref="T6:U10" si="6">100*(Q6-$K6)/$K6</f>
         <v>0.1218292886284328</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <f>100*(R6-$K6)/$K6</f>
         <v>0.89163722953635693</v>
       </c>
@@ -9001,60 +9033,60 @@
       <c r="B7" s="3">
         <v>0.38263888888888892</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3505713119</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>30.0245</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2.7892999999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>16.994900000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>324.56200000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>29.972704296545501</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f t="shared" ref="J7:J10" si="7">1/N7</f>
         <v>0.73611064955969963</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="3"/>
         <v>22.06322682879091</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" si="0"/>
         <v>0.73484077432732964</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f t="shared" si="4"/>
         <v>55.786000000000001</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" si="5"/>
         <v>1.3584914178298388</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f t="shared" si="1"/>
         <v>22.034096054075111</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f t="shared" si="2"/>
         <v>22.262429672051592</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <f t="shared" si="6"/>
         <v>-0.13203315608297986</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <f>100*(R7-$K7)/$K7</f>
         <v>0.90287266140389322</v>
       </c>
@@ -9066,60 +9098,60 @@
       <c r="B8" s="3">
         <v>0.38680555555555557</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>3505713440</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>20.0243</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1.8388</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>17.047499999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>315.0693</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>19.989890820865877</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f t="shared" si="7"/>
         <v>0.73554382927019835</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <f t="shared" si="3"/>
         <v>14.703440841072876</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>0.73427989198488219</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <f t="shared" si="4"/>
         <v>36.775999999999996</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" si="5"/>
         <v>1.3595382901821</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f t="shared" si="1"/>
         <v>14.689996744239622</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <f t="shared" si="2"/>
         <v>14.683747080324869</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <f t="shared" si="6"/>
         <v>-9.1435038767926302E-2</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <f t="shared" si="6"/>
         <v>-0.1339398101497036</v>
       </c>
@@ -9131,60 +9163,60 @@
       <c r="B9" s="3">
         <v>0.39027777777777778</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>3505713762</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>9.9910999999999994</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.89990000000000003</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>17.124400000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>307.68369999999999</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>9.9036193300538926</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f t="shared" si="7"/>
         <v>0.73630027813991927</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <f t="shared" si="3"/>
         <v>7.292037667310562</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="0"/>
         <v>0.72985333620027448</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <f t="shared" si="4"/>
         <v>17.998000000000001</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="5"/>
         <v>1.3581415486168944</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <f t="shared" si="1"/>
         <v>7.3258121310864484</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <f t="shared" si="2"/>
         <v>7.1975555123372601</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <f t="shared" si="6"/>
         <v>0.46316907998560813</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <f t="shared" si="6"/>
         <v>-1.2956893434170738</v>
       </c>
@@ -9196,60 +9228,60 @@
       <c r="B10" s="3">
         <v>0.39444444444444443</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>3505714090</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>5.0046999999999997</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.4481</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>17.198899999999998</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>303.74700000000001</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>4.9398443029016859</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f t="shared" si="7"/>
         <v>0.73698006438020824</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <f t="shared" si="3"/>
         <v>3.6405667723806894</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="0"/>
         <v>0.72742957067969904</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <f t="shared" si="4"/>
         <v>8.9619999999999997</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" si="5"/>
         <v>1.3568888065391409</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f t="shared" si="1"/>
         <v>3.6422803975997544</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <f t="shared" si="2"/>
         <v>3.5951896049809897</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <f t="shared" si="6"/>
         <v>4.7070286749456951E-2</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <f t="shared" si="6"/>
         <v>-1.2464314002961137</v>
       </c>
@@ -9261,228 +9293,228 @@
       <c r="B11" s="3">
         <v>0.3979166666666667</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>3505714423</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>2.6657000000000002</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>0.24074000000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>999.35500000000002</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>17.283899999999999</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>300.75170000000003</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>2.6082561078351723</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f t="shared" ref="J11" si="8">1/N11</f>
         <v>0.73733851743810175</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <f t="shared" ref="K11" si="9">I11*J11</f>
         <v>1.9231676916500595</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" ref="L11" si="10">K11/D11</f>
         <v>0.72144940977981742</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <f t="shared" ref="M11" si="11">100*E11/5</f>
         <v>4.8148</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" ref="N11" si="12">$U$15+$U$16*M11+$U$17*M11^2+$U$18*M11^3</f>
         <v>1.356229162521607</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <f t="shared" ref="Q11" si="13">N$18+N$19*E11+N$20*E11^2+N$21*E11^3</f>
         <v>1.9062433599094959</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <f t="shared" ref="R11" si="14">$O$18+$O$19*E11</f>
         <v>1.941832822003132</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <f t="shared" ref="T11" si="15">100*(Q11-$K11)/$K11</f>
         <v>-0.88002371369096322</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <f t="shared" ref="U11" si="16">100*(R11-$K11)/$K11</f>
         <v>0.97054096915792021</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <v>10</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>1.357</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="7">
         <v>1.355415</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <f>INTERCEPT(S15:S19,R15:R19)</f>
         <v>1.3627317073170733</v>
       </c>
-      <c r="X15" s="7" t="s">
+      <c r="X15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="6">
         <v>25</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <v>1.359</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="8">
         <v>1.7346080000000001E-4</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <f>SLOPE(S15:S19,R15:R19)</f>
         <v>-1.6791744840525296E-4</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="X16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>50</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>1.359</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="8">
         <v>-7.9187479999999995E-7</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>-0.15177399999999999</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <f>INTERCEPT(K5:K10,E5:E10)</f>
         <v>2.2325144851851775E-2</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="6">
         <v>75</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <v>1.3540000000000001</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="8">
         <v>-2.382283E-8</v>
       </c>
-      <c r="X18" s="7" t="s">
+      <c r="X18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>8.6510110000000005</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <f>SLOPE(K5:K10,E5:E10)</f>
         <v>7.9733641154410577</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="6">
         <v>100</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <v>1.341</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>-0.44146000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>6.8670999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f>AVERAGE(G5:G10)</f>
         <v>17.030666666666669</v>
       </c>
@@ -9490,10 +9522,10 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <f>AVERAGE(F5:F10)</f>
         <v>999.3549999999999</v>
       </c>
@@ -9501,7 +9533,7 @@
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N24" s="2">
@@ -10324,10 +10356,10 @@
         <v>42536</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1.0002</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0.88270000000000004</v>
       </c>
       <c r="F5" s="1">
@@ -10343,14 +10375,14 @@
         <f>O5-N5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>1.0009999999999999</v>
       </c>
       <c r="L5" s="1">
         <f>K5/D5</f>
         <v>1.0007998400319935</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q5" s="1">
@@ -10375,45 +10407,45 @@
         <v>42536</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1.4001999999999999</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>1.2448999999999999</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>990.19</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>21.3</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ref="J6:J12" si="0">O6-N6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>1.403</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L14" si="1">K6/D6</f>
+        <f t="shared" ref="L6:L13" si="1">K6/D6</f>
         <v>1.0019997143265249</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ref="Q6:Q14" si="2">N$24+N$25*E6+N$26*E6^2+N$27*E6^3</f>
+        <f t="shared" ref="Q6:Q13" si="2">N$24+N$25*E6+N$26*E6^2+N$27*E6^3</f>
         <v>1.4023494624025938</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R14" si="3">$O$24+$O$25*E6</f>
+        <f t="shared" ref="R6:R13" si="3">$O$24+$O$25*E6</f>
         <v>1.3846964169852891</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:U14" si="4">100*(Q6-$K6)/$K6</f>
+        <f t="shared" ref="T6:U13" si="4">100*(Q6-$K6)/$K6</f>
         <v>-4.6367612074567827E-2</v>
       </c>
       <c r="U6" s="1">
@@ -10421,198 +10453,198 @@
         <v>-1.3046032084612196</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42536</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2.0003000000000002</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1.7965</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>990.19</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>21.3</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J10" si="5">O7-N7</f>
+      <c r="J7" s="6">
+        <f t="shared" ref="J7:J8" si="5">O7-N7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>2.0019999999999998</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L10" si="6">K7/D7</f>
         <v>1.0008498725191219</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f t="shared" ref="Q7:Q10" si="7">N$24+N$25*E7+N$26*E7^2+N$27*E7^3</f>
         <v>2.0018268740844829</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f t="shared" ref="R7:R10" si="8">$O$24+$O$25*E7</f>
         <v>1.9870614548900396</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <f t="shared" ref="T7:T10" si="9">100*(Q7-$K7)/$K7</f>
         <v>-8.647648127716321E-3</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <f>100*(R7-$K7)/$K7</f>
         <v>-0.74618107442358539</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42536</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3.0001000000000002</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>2.7240000000000002</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>990.19</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>21.3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>2.9940000000000002</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="6"/>
         <v>0.99796673444218531</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f t="shared" si="7"/>
         <v>2.9936727786316162</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <f t="shared" si="8"/>
         <v>2.9999214488288648</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <f t="shared" si="9"/>
         <v>-1.0929237420976423E-2</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <f t="shared" ref="U8:U10" si="10">100*(R8-$K8)/$K8</f>
         <v>0.19777718199280506</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42536</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>4.0006000000000004</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>3.6337000000000002</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>990.19</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>21.3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>3.9740000000000002</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="6"/>
         <v>0.99335099735039745</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <f t="shared" si="7"/>
         <v>3.9745813794135558</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <f t="shared" si="8"/>
         <v>3.9933432671427722</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <f t="shared" si="9"/>
         <v>1.4629577593246783E-2</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <f t="shared" si="10"/>
         <v>0.48674552447840996</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42536</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>5.0010000000000003</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>4.4980000000000002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>990.19</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>21.3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>4.9429999999999996</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="6"/>
         <v>0.98840231953609259</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f t="shared" si="7"/>
         <v>4.9427900486303278</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <f t="shared" si="8"/>
         <v>4.9371868172897546</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <f t="shared" si="9"/>
         <v>-4.2474483041034742E-3</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <f t="shared" si="10"/>
         <v>-0.11760434372334619</v>
       </c>
@@ -10622,33 +10654,33 @@
         <v>42536</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>1.0003</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>0.8831</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>990.19</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>21.3</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
         <v>0.99970008997300808</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q11" s="1">
@@ -10673,33 +10705,33 @@
         <v>42536</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.49990000000000001</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>0.43940000000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>990.19</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>21.3</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>0.4955</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
         <v>0.99119823964792952</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="Q12" s="1">
@@ -10724,22 +10756,22 @@
         <v>42536</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.2001</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>0.18079999999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>990.19</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>21.3</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>0.19620000000000001</v>
       </c>
       <c r="L13" s="1">
@@ -10769,22 +10801,22 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="K14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N19" s="1" t="s">
